--- a/biology/Botanique/Rosa_pimpinellifolia/Rosa_pimpinellifolia.xlsx
+++ b/biology/Botanique/Rosa_pimpinellifolia/Rosa_pimpinellifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rosier pimprenelle, ou Rosier à feuilles de pimprenelle (Rosa pimpinellifolia), est une espèce de plantes à fleurs de la famille des Rosaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un rosier originaire d'Europe et d'Afrique du Nord. Cette espèce a une aire de diffusion assez étendue.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement sur sols pauvres et sableux ; landes, ourlets et fourrés thermophiles.
 </t>
@@ -573,9 +589,11 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une fleur symbole de l'Écosse après le chardon[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une fleur symbole de l'Écosse après le chardon.
 </t>
         </is>
       </c>
@@ -604,13 +622,15 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains auteurs subdivisent l'espèce en : 
 Rosa pimpinellifolia Linné et
 Rosa spinosissima L. qui serait en réalité une variété que l'on peut différencier mieux en la nommant Rosa pimpinellifolia type spinosissima.
-Pour d'autres, Rosa pimpinellifolia L. et Rosa spinosissima L. sont synonymes[2].
-Des plantes semblables originaires d'Extrême-Orient, parfois traitées comme une variété, Rosa pimpinellifolia var. subalpina, sont maintenant considérées comme appartenant à une espèce séparée, Rosa oxyacantha[3]. Elles s'en différencient par leurs fleurs roses et leurs fruits rouges.
+Pour d'autres, Rosa pimpinellifolia L. et Rosa spinosissima L. sont synonymes.
+Des plantes semblables originaires d'Extrême-Orient, parfois traitées comme une variété, Rosa pimpinellifolia var. subalpina, sont maintenant considérées comme appartenant à une espèce séparée, Rosa oxyacantha. Elles s'en différencient par leurs fleurs roses et leurs fruits rouges.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau à feuilles caduques, à port dressé, plutôt bas, généralement de 20 à 140 cm de haut mais atteignant parfois 2 mètres.
 Il tend à s'étaler par drageonnement et peut couvrir une grande surface.
@@ -680,7 +702,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Variétés naturelles devenues des cultivars :
 Rosa pimpinellifolia 'Myriacantha' le 'spinolea' de Pline l'Ancien
@@ -729,7 +753,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En Belgique, l'espèce est légalement protégée.
 En France, l'espèce figure sur la liste rouge des plantes du Nord-Pas-de-Calais et de la Lorraine comme quasi-menacée (NT).
